--- a/2_OCTOBER_ATTENDANCE_SUBMITTED_DPG_OPERATION_RESEARCH.xlsx
+++ b/2_OCTOBER_ATTENDANCE_SUBMITTED_DPG_OPERATION_RESEARCH.xlsx
@@ -597,7 +597,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -901,8 +901,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1140,7 +1140,9 @@
         <v>32</v>
       </c>
       <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="D14" s="25">
+        <v>3</v>
+      </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
@@ -1157,7 +1159,9 @@
         <v>33</v>
       </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="D15" s="25">
+        <v>3</v>
+      </c>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
@@ -1174,7 +1178,9 @@
         <v>34</v>
       </c>
       <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="D16" s="25">
+        <v>3</v>
+      </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
@@ -1193,7 +1199,9 @@
       <c r="C17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="27">
+        <v>3</v>
+      </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -1212,7 +1220,9 @@
       <c r="C18" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="27">
+        <v>3</v>
+      </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -1231,7 +1241,9 @@
       <c r="C19" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="27">
+        <v>3</v>
+      </c>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
@@ -1250,7 +1262,9 @@
       <c r="C20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="27"/>
+      <c r="D20" s="27">
+        <v>3</v>
+      </c>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
@@ -1267,7 +1281,9 @@
         <v>35</v>
       </c>
       <c r="C21" s="25"/>
-      <c r="D21" s="27"/>
+      <c r="D21" s="27">
+        <v>3</v>
+      </c>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>

--- a/2_OCTOBER_ATTENDANCE_SUBMITTED_DPG_OPERATION_RESEARCH.xlsx
+++ b/2_OCTOBER_ATTENDANCE_SUBMITTED_DPG_OPERATION_RESEARCH.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>October 2023</t>
+  </si>
+  <si>
+    <t>12:00 AM To 03:00 PM</t>
   </si>
 </sst>
 </file>
@@ -597,7 +600,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,7 +905,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1052,7 +1055,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F10" s="8">
         <v>21</v>
@@ -1078,7 +1081,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>20</v>
@@ -1141,9 +1144,11 @@
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25">
-        <v>3</v>
-      </c>
-      <c r="E14" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0</v>
+      </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -1160,9 +1165,11 @@
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25">
-        <v>3</v>
-      </c>
-      <c r="E15" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0</v>
+      </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -1179,9 +1186,11 @@
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25">
-        <v>3</v>
-      </c>
-      <c r="E16" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0</v>
+      </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -1200,9 +1209,11 @@
         <v>25</v>
       </c>
       <c r="D17" s="27">
-        <v>3</v>
-      </c>
-      <c r="E17" s="27"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0</v>
+      </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -1221,9 +1232,11 @@
         <v>27</v>
       </c>
       <c r="D18" s="27">
-        <v>3</v>
-      </c>
-      <c r="E18" s="27"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="27">
+        <v>0</v>
+      </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -1244,7 +1257,9 @@
       <c r="D19" s="27">
         <v>3</v>
       </c>
-      <c r="E19" s="27"/>
+      <c r="E19" s="27">
+        <v>3</v>
+      </c>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -1265,7 +1280,9 @@
       <c r="D20" s="27">
         <v>3</v>
       </c>
-      <c r="E20" s="27"/>
+      <c r="E20" s="27">
+        <v>3</v>
+      </c>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -1282,9 +1299,11 @@
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="27">
-        <v>3</v>
-      </c>
-      <c r="E21" s="27"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="27">
+        <v>0</v>
+      </c>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>

--- a/2_OCTOBER_ATTENDANCE_SUBMITTED_DPG_OPERATION_RESEARCH.xlsx
+++ b/2_OCTOBER_ATTENDANCE_SUBMITTED_DPG_OPERATION_RESEARCH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4420"/>
   </bookViews>
   <sheets>
     <sheet name="August" sheetId="6" r:id="rId1"/>
@@ -600,7 +600,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,7 +905,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1149,7 +1149,9 @@
       <c r="E14" s="25">
         <v>0</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -1170,7 +1172,9 @@
       <c r="E15" s="25">
         <v>0</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="25">
+        <v>0</v>
+      </c>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
@@ -1191,7 +1195,9 @@
       <c r="E16" s="25">
         <v>0</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="25">
+        <v>0</v>
+      </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -1214,7 +1220,9 @@
       <c r="E17" s="27">
         <v>0</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="27">
+        <v>0</v>
+      </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
@@ -1237,7 +1245,9 @@
       <c r="E18" s="27">
         <v>0</v>
       </c>
-      <c r="F18" s="27"/>
+      <c r="F18" s="27">
+        <v>0</v>
+      </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
@@ -1260,7 +1270,9 @@
       <c r="E19" s="27">
         <v>3</v>
       </c>
-      <c r="F19" s="27"/>
+      <c r="F19" s="27">
+        <v>3</v>
+      </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="28"/>
@@ -1283,7 +1295,9 @@
       <c r="E20" s="27">
         <v>3</v>
       </c>
-      <c r="F20" s="27"/>
+      <c r="F20" s="27">
+        <v>3</v>
+      </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="28"/>
@@ -1304,7 +1318,9 @@
       <c r="E21" s="27">
         <v>0</v>
       </c>
-      <c r="F21" s="27"/>
+      <c r="F21" s="27">
+        <v>0</v>
+      </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>

--- a/2_OCTOBER_ATTENDANCE_SUBMITTED_DPG_OPERATION_RESEARCH.xlsx
+++ b/2_OCTOBER_ATTENDANCE_SUBMITTED_DPG_OPERATION_RESEARCH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="August" sheetId="6" r:id="rId1"/>
@@ -600,7 +600,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,7 +905,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1061,7 +1061,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="45" t="s">
@@ -1152,7 +1152,9 @@
       <c r="F14" s="25">
         <v>0</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
@@ -1175,7 +1177,9 @@
       <c r="F15" s="25">
         <v>0</v>
       </c>
-      <c r="G15" s="25"/>
+      <c r="G15" s="25">
+        <v>3</v>
+      </c>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
@@ -1198,7 +1202,9 @@
       <c r="F16" s="25">
         <v>0</v>
       </c>
-      <c r="G16" s="25"/>
+      <c r="G16" s="25">
+        <v>3</v>
+      </c>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
@@ -1223,7 +1229,9 @@
       <c r="F17" s="27">
         <v>0</v>
       </c>
-      <c r="G17" s="27"/>
+      <c r="G17" s="27">
+        <v>0</v>
+      </c>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
       <c r="J17" s="29"/>
@@ -1248,7 +1256,9 @@
       <c r="F18" s="27">
         <v>0</v>
       </c>
-      <c r="G18" s="27"/>
+      <c r="G18" s="27">
+        <v>0</v>
+      </c>
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
       <c r="J18" s="29"/>
@@ -1273,7 +1283,9 @@
       <c r="F19" s="27">
         <v>3</v>
       </c>
-      <c r="G19" s="27"/>
+      <c r="G19" s="27">
+        <v>0</v>
+      </c>
       <c r="H19" s="27"/>
       <c r="I19" s="28"/>
       <c r="J19" s="29"/>
@@ -1298,7 +1310,9 @@
       <c r="F20" s="27">
         <v>3</v>
       </c>
-      <c r="G20" s="27"/>
+      <c r="G20" s="27">
+        <v>0</v>
+      </c>
       <c r="H20" s="27"/>
       <c r="I20" s="28"/>
       <c r="J20" s="29"/>
@@ -1321,7 +1335,9 @@
       <c r="F21" s="27">
         <v>0</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="27">
+        <v>0</v>
+      </c>
       <c r="H21" s="27"/>
       <c r="I21" s="28"/>
       <c r="J21" s="29"/>
